--- a/vgp_database/Eastern_Alkaline_Province.xlsx
+++ b/vgp_database/Eastern_Alkaline_Province.xlsx
@@ -385,7 +385,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,6 +414,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -550,7 +556,7 @@
     <xf borderId="0" fillId="3" fontId="3" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
